--- a/P_chart.xlsx
+++ b/P_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinnlandet-my.sharepoint.com/personal/nils_kvilvang_inn_no/Documents/Undervisning/SPC_book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39733261-616D-44EC-887A-052A7BBF2D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{39733261-616D-44EC-887A-052A7BBF2D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD403E39-C3AA-46A7-8F44-F2608555B71C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8815667C-CDCB-490B-A561-88C841272F71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{8815667C-CDCB-490B-A561-88C841272F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -453,9 +453,12 @@
       <selection sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -477,7 +480,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -488,7 +491,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -499,7 +502,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -510,7 +513,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -521,7 +524,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -532,7 +535,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -543,7 +546,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -554,7 +557,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -565,7 +568,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -576,7 +579,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -587,7 +590,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -598,7 +601,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -609,7 +612,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -620,7 +623,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -631,7 +634,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -642,7 +645,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -653,7 +656,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -664,7 +667,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -675,7 +678,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -686,7 +689,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -697,7 +700,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -708,7 +711,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -719,7 +722,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
